--- a/public/template.xlsx
+++ b/public/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\学习\wbms\wbms--front\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A94C4B7-6CA1-4FD2-8873-E08B1F9F92FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA06292-BFBD-41D6-83EE-0C699A0D8AF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5352" yWindow="1236" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8172" yWindow="2700" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,14 +22,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>pallet_number</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>MAC地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>PN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>module</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -52,10 +60,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -82,11 +89,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -393,23 +397,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="19.21875" customWidth="1"/>
     <col min="4" max="4" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
